--- a/data/trans_bre/P18_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>187,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>175,97%</t>
+          <t>161,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>186,77%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>121,29%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 12,09</t>
+          <t>-15,53; 18,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 11,66</t>
+          <t>0,77; 12,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 10,31</t>
+          <t>-1,93; 9,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,84</t>
+          <t>2,86; 10,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 2,6</t>
+          <t>-0,89; 11,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 73,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 601,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 236,59</t>
+          <t>-48,66; 181,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,12; 457,37</t>
+          <t>-1,27; 703,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 2,9</t>
+          <t>-20,56; 174,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50,46; 465,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-21,83; 608,69</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>104,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>93,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-13,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-54,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,95</t>
+          <t>-4,16; 4,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,64</t>
+          <t>-0,3; 8,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,81</t>
+          <t>0,59; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,91</t>
+          <t>-2,98; 2,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,58</t>
+          <t>-6,96; -0,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 66,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 227,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 150,57</t>
+          <t>-41,26; 87,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,41; 77,98</t>
+          <t>-16,63; 409,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,74</t>
+          <t>6,68; 264,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-56,19; 101,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-80,34; -0,34</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-54,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>60,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,58</t>
+          <t>-4,56; 3,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,56</t>
+          <t>-4,33; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,58</t>
+          <t>-1,14; 4,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,98</t>
+          <t>-1,27; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,8</t>
+          <t>-0,76; 3,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 66,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-85,23; 32,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 118,35</t>
+          <t>-52,14; 105,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 233,7</t>
+          <t>-89,02; 196,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,83</t>
+          <t>-30,73; 237,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-35,65; 180,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 709,89</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>38,99%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-26,92%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,06</t>
+          <t>-0,14; 6,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,58</t>
+          <t>-2,84; 4,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,65</t>
+          <t>-1,83; 6,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,4</t>
+          <t>-3,85; 2,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 53,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 133,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 115,44</t>
+          <t>-1,39; 65,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 110,69</t>
+          <t>-42,86; 207,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,42</t>
+          <t>-26,33; 171,19</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-70,44; 95,58</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 5,27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 4,07</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 4,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 3,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 1,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 57,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 166,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 122,73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 127,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-38,3; 60,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
